--- a/biology/Zoologie/Asteriidae/Asteriidae.xlsx
+++ b/biology/Zoologie/Asteriidae/Asteriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asteriidae sont une famille d'étoiles de mer (Asteroidea), de l'ordre des Forcipulatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces étoiles sont caractérisées par leur tégument renforcé par un réseau réticulé d'ossicules calcaires, ainsi que des rangées longitudinales d'épines. Elles peuvent avoir des pédicellaires droits et croisés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces étoiles sont caractérisées par leur tégument renforcé par un réseau réticulé d'ossicules calcaires, ainsi que des rangées longitudinales d'épines. Elles peuvent avoir des pédicellaires droits et croisés.
 La plupart des espèces de cette famille se trouvent dans des eaux froides, jusqu'en Arctique et Antarctique. Cependant, certaines comme l'étoile commune Asterias rubens sont courantes dans toute l'Europe atlantique.
 Avec près de 170 espèces réparties dans une quarantaine de genres (largement dominés par le genre Leptasterias), il s'agit de la troisième plus vaste famille d'étoiles de mer, derrière les Goniasteridae et les Astropectinidae.
 </t>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 janvier 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 janvier 2015) :
 genre Adelasterias Verrill, 1914 -- 1 espèce
 genre Anasterias Perrier, 1875 -- 14 espèces
 genre Aphanasterias Fisher, 1923 -- 1 espèce
